--- a/perf_studies/sql_perf_data.xlsx
+++ b/perf_studies/sql_perf_data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mysql-same-zone" sheetId="1" r:id="rId1"/>
     <sheet name="sqlite-same-zone" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="mysql-cross-region" sheetId="3" r:id="rId3"/>
+    <sheet name="sqlite-cross-region" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Query-0</t>
   </si>
@@ -38,12 +39,15 @@
   <si>
     <t>SocketPro + Sync</t>
   </si>
+  <si>
+    <t>SQL-INSERT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +58,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,16 +92,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -399,13 +417,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -443,7 +461,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="1">
         <v>1170</v>
       </c>
@@ -452,6 +472,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>10400</v>
       </c>
@@ -460,6 +481,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -470,24 +494,24 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -519,7 +543,9 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="1">
         <v>420</v>
       </c>
@@ -534,12 +560,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>17600</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>357000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>349000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>354000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>348000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2840</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1">
+        <v>1726000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>20050</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2240</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>349000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>346000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2510</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/perf_studies/sql_perf_data.xlsx
+++ b/perf_studies/sql_perf_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql-same-zone" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Query-0</t>
   </si>
@@ -41,13 +41,32 @@
   </si>
   <si>
     <t>SQL-INSERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-Machine
+(0.2 ms/2.0 Gbps)
+</t>
+  </si>
+  <si>
+    <t>Cross-Region
+(34 ms/40 Mbps)</t>
+  </si>
+  <si>
+    <t>Cross-Machine
+(0.2 ms/2.0 Gbps)</t>
+  </si>
+  <si>
+    <t>SocketPro Streaming + Async</t>
+  </si>
+  <si>
+    <t>SocketPro Streaming/Async</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +90,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -88,11 +122,250 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -101,13 +374,103 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,86 +766,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="27" customHeight="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="D4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="24">
         <v>5670</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C5" s="25">
         <v>1540</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="D5" s="24">
+        <v>17600</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
         <v>14300</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C6" s="5">
         <v>3905</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D6" s="6">
+        <v>357000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>349000</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="26">
         <v>15200</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C7" s="27">
         <v>3850</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="26">
+        <v>354000</v>
+      </c>
+      <c r="E7" s="27">
+        <v>348000</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="2:6" ht="6" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C9" s="5">
         <v>1170</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1">
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2840</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <v>10400</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <v>1726000</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="2:6" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -491,69 +921,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" customHeight="1">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="D4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="24">
         <v>3050</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C5" s="25">
         <v>1360</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="D5" s="24">
+        <v>20050</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2240</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B6" s="26">
         <v>6870</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C6" s="27">
         <v>3250</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D6" s="26">
+        <v>349000</v>
+      </c>
+      <c r="E6" s="27">
+        <v>346000</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C7" s="11">
         <v>420</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="D7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2510</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickTop="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -563,7 +1039,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,7 +1099,7 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -634,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>1726000</v>
       </c>
@@ -654,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,7 +1180,7 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">

--- a/perf_studies/sql_perf_data.xlsx
+++ b/perf_studies/sql_perf_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="mysql-same-zone" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Query-0</t>
   </si>
@@ -60,13 +60,203 @@
   </si>
   <si>
     <t>SocketPro Streaming/Async</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query-0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT * FROM actor/10,000 cycles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query-1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT * FROM actor WHERE actor_id between 11 and 20/10,000 cycles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSERT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INSERT INTO company(ID,NAME,ADDRESS,Income)VALUES(?,?,?,?)/50,000 cycles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Server Machine:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> us-central1-c/n1-standard-1 (1 vCPU, 3.75 GB memory)/Ubuntu 16.04.2 LTS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Machine 0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> us-central1-c/custom (2 vCPUs, 5.75 GB memory)/Win Server 2012R2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Machine 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>us-west1-b/custom (2 vCPUs, 5 GB memory)/Win Server 2012R2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Machine 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> us-west1-b/custom (2 vCPUs, 5 GB memory)/Win Server 2012R2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +295,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -361,11 +568,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -376,9 +663,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -388,21 +672,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,64 +734,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,153 +1066,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="27" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="24">
+      <c r="B5" s="11">
         <v>5670</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="12">
         <v>1540</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="11">
         <v>17600</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="12">
         <v>2000</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>14300</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3905</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>357000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>349000</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="26">
+      <c r="B7" s="13">
         <v>15200</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="14">
         <v>3850</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="13">
         <v>354000</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="14">
         <v>348000</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="6" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1170</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2840</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="7">
         <v>10400</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
+      <c r="D10" s="41"/>
+      <c r="E10" s="7">
         <v>1726000</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickTop="1"/>
+    <row r="11" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -921,116 +1280,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="19.5" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="24">
+      <c r="B5" s="11">
         <v>3050</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="12">
         <v>1360</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="11">
         <v>20050</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="12">
         <v>2240</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B6" s="26">
+      <c r="B6" s="13">
         <v>6870</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="14">
         <v>3250</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="13">
         <v>349000</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="14">
         <v>346000</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>420</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>2510</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickTop="1"/>
+    <row r="8" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1099,7 +1518,7 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1110,7 +1529,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="1">
         <v>1726000</v>
       </c>

--- a/perf_studies/sql_perf_data.xlsx
+++ b/perf_studies/sql_perf_data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cyetest\doc\perf_studies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855"/>
   </bookViews>
@@ -255,8 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +317,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -652,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -675,9 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -697,9 +706,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,18 +717,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,9 +748,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -768,16 +778,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -824,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,9 +885,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,6 +937,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1065,14 +1130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
@@ -1081,60 +1146,60 @@
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="27" customHeight="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="9" t="s">
+    <row r="3" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="11">
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>5670</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1540</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>17600</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2000</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>14300</v>
       </c>
@@ -1151,38 +1216,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="13">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="49">
         <v>15200</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="50">
         <v>3850</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="49">
         <v>354000</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="50">
         <v>348000</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="6" customHeight="1">
+    <row r="8" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4">
         <v>1170</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="4">
@@ -1192,72 +1257,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="7">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38"/>
+      <c r="C10" s="52">
         <v>10400</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="7">
+      <c r="D10" s="38"/>
+      <c r="E10" s="52">
         <v>1726000</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="23" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="23" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="23" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="26" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B16" s="29" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1279,14 +1344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
@@ -1295,8 +1360,8 @@
     <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:6" ht="15.75" thickTop="1">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
@@ -1309,70 +1374,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" customHeight="1">
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="44"/>
       <c r="C3" s="45"/>
       <c r="D3" s="44"/>
       <c r="E3" s="45"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="11">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>3050</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1360</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>20050</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2240</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B6" s="13">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
         <v>6870</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>3250</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>349000</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>346000</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>420</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="7">
@@ -1382,59 +1447,59 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="23" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="26" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B13" s="29" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1454,21 +1519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>17600</v>
       </c>
@@ -1490,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>357000</v>
       </c>
@@ -1501,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>354000</v>
       </c>
@@ -1512,12 +1577,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="1">
         <v>1726000</v>
@@ -1546,21 +1611,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20050</v>
       </c>
@@ -1582,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>349000</v>
       </c>
@@ -1593,12 +1658,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>

--- a/perf_studies/sql_perf_data.xlsx
+++ b/perf_studies/sql_perf_data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cyetest\doc\perf_studies\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855"/>
   </bookViews>
@@ -260,8 +255,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +712,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -733,12 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -778,20 +782,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,27 +880,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,24 +914,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1130,14 +1089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
@@ -1146,28 +1105,28 @@
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="27" customHeight="1">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1180,9 +1139,9 @@
       <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="10">
         <v>5670</v>
       </c>
@@ -1199,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="5">
         <v>14300</v>
       </c>
@@ -1216,38 +1175,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="18">
         <v>15200</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="19">
         <v>3850</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="18">
         <v>354000</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="19">
         <v>348000</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="6" customHeight="1">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4">
         <v>1170</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="40" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="4">
@@ -1257,72 +1216,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="52">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B10" s="41"/>
+      <c r="C10" s="21">
         <v>10400</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="52">
+      <c r="D10" s="41"/>
+      <c r="E10" s="21">
         <v>1726000</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1344,14 +1303,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
@@ -1360,28 +1319,28 @@
     <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="19.5" customHeight="1">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -1394,9 +1353,9 @@
       <c r="E4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="10">
         <v>3050</v>
       </c>
@@ -1413,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="12">
         <v>6870</v>
       </c>
@@ -1430,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
@@ -1447,59 +1406,59 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1519,21 +1478,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>17600</v>
       </c>
@@ -1555,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>357000</v>
       </c>
@@ -1566,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>354000</v>
       </c>
@@ -1577,13 +1536,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1593,8 +1552,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="51"/>
       <c r="B7" s="1">
         <v>1726000</v>
       </c>
@@ -1611,21 +1570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>20050</v>
       </c>
@@ -1647,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>349000</v>
       </c>
@@ -1658,12 +1617,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
